--- a/JP (Exclude Game)/Dialog/Drama/farris.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/farris.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="farris" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -729,12 +729,12 @@
 Well, he is a creepy man, but he doesn’t come across as purely evil.</t>
   </si>
   <si>
-    <t xml:space="preserve">追放者デミタス…あんな姿になる前は、どんな人だったのでしょうか。そして、彼が追放者となった原因も気になります。
+    <t xml:space="preserve">追放者デミタス…あんな姿になる前は、どんな人だったのでしょうか。そして、彼が「追放」された原因も気になります。
 …いつか、本人に聞いてみたいですね。</t>
   </si>
   <si>
     <t xml:space="preserve">Demitas, the Exile... I wonder what he was like before he became...
-And what caused him to become an Exile in the first place? One day, I’d love to hear his story from him.</t>
+And what caused him to be exiled in the first place? One day, I’d love to hear his story from him.</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +1132,9 @@
   <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J135" activeCellId="0" sqref="J135"/>
+      <selection pane="bottomLeft" activeCell="J156" activeCellId="0" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/JP (Exclude Game)/Dialog/Drama/farris.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/farris.xlsx
@@ -114,7 +114,7 @@
   </si>
   <si>
     <t xml:space="preserve">Oh...thank the merciful Ehekatl for this encounter.
-I  am Farris, the talesinger of Olvina. Something unusual has been happening in Nymelle and I have come to this cave with a band of hired swords. But alas, we were attacked by vicious monsters.</t>
+I am Farris, the talesinger of Olvina. Something unusual has been happening in Nymelle and I have come to this cave with a band of hired swords. But alas, we were attacked by vicious monsters.</t>
   </si>
   <si>
     <t xml:space="preserve">addKeyItem</t>
@@ -1132,9 +1132,9 @@
   <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J156" activeCellId="0" sqref="J156"/>
+      <selection pane="bottomLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
